--- a/SampleNodes.xlsx
+++ b/SampleNodes.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/SampleNodes.xlsx
+++ b/SampleNodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Tehran</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>35.9548 , 52.1100</t>
+  </si>
+  <si>
+    <t>ROADM_Type</t>
+  </si>
+  <si>
+    <t>Directionless</t>
   </si>
 </sst>
 </file>
@@ -438,13 +441,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -458,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -466,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -494,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -508,13 +512,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
